--- a/po forecast comparison/B0BYBHW4SH_sales_po_comparison.xlsx
+++ b/po forecast comparison/B0BYBHW4SH_sales_po_comparison.xlsx
@@ -7,7 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales vs PO" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Growth" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Volume Insights" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prediction Info" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C95"/>
+  <dimension ref="A1:D95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,1042 +453,1781 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Order Week</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>PO_Requested_Qty</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
+        <v>44948</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="n">
         <v>44942</v>
       </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
+        <v>44955</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="n">
         <v>44949</v>
       </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44963</v>
+        <v>44969</v>
       </c>
       <c r="B4" t="n">
         <v>49</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="2" t="n">
+        <v>44963</v>
+      </c>
+      <c r="D4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45012</v>
+        <v>45018</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="2" t="n">
+        <v>45012</v>
+      </c>
+      <c r="D5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45019</v>
+        <v>45025</v>
       </c>
       <c r="B6" t="n">
         <v>9</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="2" t="n">
+        <v>45019</v>
+      </c>
+      <c r="D6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45026</v>
+        <v>45032</v>
       </c>
       <c r="B7" t="n">
         <v>30</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" s="2" t="n">
+        <v>45026</v>
+      </c>
+      <c r="D7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45033</v>
+        <v>45039</v>
       </c>
       <c r="B8" t="n">
         <v>53</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" s="2" t="n">
+        <v>45033</v>
+      </c>
+      <c r="D8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45040</v>
+        <v>45046</v>
       </c>
       <c r="B9" t="n">
         <v>73</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" s="2" t="n">
+        <v>45040</v>
+      </c>
+      <c r="D9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45047</v>
+        <v>45053</v>
       </c>
       <c r="B10" t="n">
         <v>22</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10" s="2" t="n">
+        <v>45047</v>
+      </c>
+      <c r="D10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45054</v>
+        <v>45060</v>
       </c>
       <c r="B11" t="n">
         <v>48</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11" s="2" t="n">
+        <v>45054</v>
+      </c>
+      <c r="D11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45061</v>
+        <v>45067</v>
       </c>
       <c r="B12" t="n">
         <v>94</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12" s="2" t="n">
+        <v>45061</v>
+      </c>
+      <c r="D12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45068</v>
+        <v>45074</v>
       </c>
       <c r="B13" t="n">
         <v>82</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13" s="2" t="n">
+        <v>45068</v>
+      </c>
+      <c r="D13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45075</v>
+        <v>45081</v>
       </c>
       <c r="B14" t="n">
         <v>42</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14" s="2" t="n">
+        <v>45075</v>
+      </c>
+      <c r="D14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45082</v>
+        <v>45088</v>
       </c>
       <c r="B15" t="n">
         <v>93</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15" s="2" t="n">
+        <v>45082</v>
+      </c>
+      <c r="D15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45089</v>
+        <v>45095</v>
       </c>
       <c r="B16" t="n">
         <v>121</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16" s="2" t="n">
+        <v>45089</v>
+      </c>
+      <c r="D16" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45096</v>
+        <v>45102</v>
       </c>
       <c r="B17" t="n">
         <v>149</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17" s="2" t="n">
+        <v>45096</v>
+      </c>
+      <c r="D17" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45103</v>
+        <v>45109</v>
       </c>
       <c r="B18" t="n">
         <v>101</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18" s="2" t="n">
+        <v>45103</v>
+      </c>
+      <c r="D18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45110</v>
+        <v>45116</v>
       </c>
       <c r="B19" t="n">
         <v>150</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19" s="2" t="n">
+        <v>45110</v>
+      </c>
+      <c r="D19" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45117</v>
+        <v>45123</v>
       </c>
       <c r="B20" t="n">
         <v>162</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20" s="2" t="n">
+        <v>45117</v>
+      </c>
+      <c r="D20" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45124</v>
+        <v>45130</v>
       </c>
       <c r="B21" t="n">
         <v>110</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21" s="2" t="n">
+        <v>45124</v>
+      </c>
+      <c r="D21" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45131</v>
+        <v>45137</v>
       </c>
       <c r="B22" t="n">
         <v>18</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22" s="2" t="n">
+        <v>45131</v>
+      </c>
+      <c r="D22" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45138</v>
+        <v>45144</v>
       </c>
       <c r="B23" t="n">
         <v>34</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23" s="2" t="n">
+        <v>45138</v>
+      </c>
+      <c r="D23" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45145</v>
+        <v>45151</v>
       </c>
       <c r="B24" t="n">
         <v>113</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24" s="2" t="n">
+        <v>45145</v>
+      </c>
+      <c r="D24" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45152</v>
+        <v>45158</v>
       </c>
       <c r="B25" t="n">
         <v>209</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25" s="2" t="n">
+        <v>45152</v>
+      </c>
+      <c r="D25" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45159</v>
+        <v>45165</v>
       </c>
       <c r="B26" t="n">
         <v>166</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26" s="2" t="n">
+        <v>45159</v>
+      </c>
+      <c r="D26" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45166</v>
+        <v>45172</v>
       </c>
       <c r="B27" t="n">
         <v>145</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27" s="2" t="n">
+        <v>45166</v>
+      </c>
+      <c r="D27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45173</v>
+        <v>45179</v>
       </c>
       <c r="B28" t="n">
         <v>205</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28" s="2" t="n">
+        <v>45173</v>
+      </c>
+      <c r="D28" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45180</v>
+        <v>45186</v>
       </c>
       <c r="B29" t="n">
         <v>206</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29" s="2" t="n">
+        <v>45180</v>
+      </c>
+      <c r="D29" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45187</v>
+        <v>45193</v>
       </c>
       <c r="B30" t="n">
         <v>162</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30" s="2" t="n">
+        <v>45187</v>
+      </c>
+      <c r="D30" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45194</v>
+        <v>45200</v>
       </c>
       <c r="B31" t="n">
         <v>430</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31" s="2" t="n">
+        <v>45194</v>
+      </c>
+      <c r="D31" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45201</v>
+        <v>45207</v>
       </c>
       <c r="B32" t="n">
         <v>205</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32" s="2" t="n">
+        <v>45201</v>
+      </c>
+      <c r="D32" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45208</v>
+        <v>45214</v>
       </c>
       <c r="B33" t="n">
         <v>165</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33" s="2" t="n">
+        <v>45208</v>
+      </c>
+      <c r="D33" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45215</v>
+        <v>45221</v>
       </c>
       <c r="B34" t="n">
         <v>141</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34" s="2" t="n">
+        <v>45215</v>
+      </c>
+      <c r="D34" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45222</v>
+        <v>45228</v>
       </c>
       <c r="B35" t="n">
         <v>108</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35" s="2" t="n">
+        <v>45222</v>
+      </c>
+      <c r="D35" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45229</v>
+        <v>45235</v>
       </c>
       <c r="B36" t="n">
         <v>144</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36" s="2" t="n">
+        <v>45229</v>
+      </c>
+      <c r="D36" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45236</v>
+        <v>45242</v>
       </c>
       <c r="B37" t="n">
         <v>828</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37" s="2" t="n">
+        <v>45236</v>
+      </c>
+      <c r="D37" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45243</v>
+        <v>45249</v>
       </c>
       <c r="B38" t="n">
         <v>1463</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38" s="2" t="n">
+        <v>45243</v>
+      </c>
+      <c r="D38" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45250</v>
+        <v>45256</v>
       </c>
       <c r="B39" t="n">
         <v>342</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39" s="2" t="n">
+        <v>45250</v>
+      </c>
+      <c r="D39" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45257</v>
+        <v>45263</v>
       </c>
       <c r="B40" t="n">
         <v>83</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40" s="2" t="n">
+        <v>45257</v>
+      </c>
+      <c r="D40" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45264</v>
+        <v>45270</v>
       </c>
       <c r="B41" t="n">
         <v>77</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41" s="2" t="n">
+        <v>45264</v>
+      </c>
+      <c r="D41" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45271</v>
+        <v>45277</v>
       </c>
       <c r="B42" t="n">
         <v>21</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42" s="2" t="n">
+        <v>45271</v>
+      </c>
+      <c r="D42" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45285</v>
+        <v>45291</v>
       </c>
       <c r="B43" t="n">
         <v>29</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43" s="2" t="n">
+        <v>45285</v>
+      </c>
+      <c r="D43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" s="2" t="n">
         <v>45292</v>
       </c>
-      <c r="B44" t="n">
-        <v>0</v>
-      </c>
-      <c r="C44" t="n">
+      <c r="D44" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45299</v>
+        <v>45305</v>
       </c>
       <c r="B45" t="n">
         <v>134</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="D45" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45306</v>
+        <v>45312</v>
       </c>
       <c r="B46" t="n">
         <v>181</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46" s="2" t="n">
+        <v>45306</v>
+      </c>
+      <c r="D46" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45313</v>
+        <v>45319</v>
       </c>
       <c r="B47" t="n">
         <v>149</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47" s="2" t="n">
+        <v>45313</v>
+      </c>
+      <c r="D47" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45320</v>
+        <v>45326</v>
       </c>
       <c r="B48" t="n">
         <v>238</v>
       </c>
-      <c r="C48" t="n">
-        <v>2424</v>
+      <c r="C48" s="2" t="n">
+        <v>45320</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45327</v>
+        <v>45333</v>
       </c>
       <c r="B49" t="n">
         <v>227</v>
       </c>
-      <c r="C49" t="n">
-        <v>4224</v>
+      <c r="C49" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45334</v>
+        <v>45340</v>
       </c>
       <c r="B50" t="n">
         <v>340</v>
       </c>
-      <c r="C50" t="n">
-        <v>24</v>
+      <c r="C50" s="2" t="n">
+        <v>45334</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45341</v>
+        <v>45347</v>
       </c>
       <c r="B51" t="n">
         <v>395</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51" s="2" t="n">
+        <v>45341</v>
+      </c>
+      <c r="D51" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45348</v>
+        <v>45354</v>
       </c>
       <c r="B52" t="n">
         <v>328</v>
       </c>
-      <c r="C52" t="n">
-        <v>1128</v>
+      <c r="C52" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45355</v>
+        <v>45361</v>
       </c>
       <c r="B53" t="n">
         <v>277</v>
       </c>
-      <c r="C53" t="n">
-        <v>960</v>
+      <c r="C53" s="2" t="n">
+        <v>45355</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45362</v>
+        <v>45368</v>
       </c>
       <c r="B54" t="n">
         <v>283</v>
       </c>
-      <c r="C54" t="n">
-        <v>64</v>
+      <c r="C54" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45369</v>
+        <v>45375</v>
       </c>
       <c r="B55" t="n">
         <v>271</v>
       </c>
-      <c r="C55" t="n">
-        <v>1304</v>
+      <c r="C55" s="2" t="n">
+        <v>45369</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45376</v>
+        <v>45382</v>
       </c>
       <c r="B56" t="n">
         <v>271</v>
       </c>
-      <c r="C56" t="n">
-        <v>424</v>
+      <c r="C56" s="2" t="n">
+        <v>45376</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45383</v>
+        <v>45389</v>
       </c>
       <c r="B57" t="n">
         <v>276</v>
       </c>
-      <c r="C57" t="n">
-        <v>912</v>
+      <c r="C57" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45390</v>
+        <v>45396</v>
       </c>
       <c r="B58" t="n">
         <v>250</v>
       </c>
-      <c r="C58" t="n">
-        <v>512</v>
+      <c r="C58" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45397</v>
+        <v>45403</v>
       </c>
       <c r="B59" t="n">
         <v>241</v>
       </c>
-      <c r="C59" t="n">
-        <v>464</v>
+      <c r="C59" s="2" t="n">
+        <v>45397</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45404</v>
+        <v>45410</v>
       </c>
       <c r="B60" t="n">
         <v>211</v>
       </c>
-      <c r="C60" t="n">
-        <v>336</v>
+      <c r="C60" s="2" t="n">
+        <v>45404</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45411</v>
+        <v>45417</v>
       </c>
       <c r="B61" t="n">
         <v>208</v>
       </c>
-      <c r="C61" t="n">
-        <v>576</v>
+      <c r="C61" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45418</v>
+        <v>45424</v>
       </c>
       <c r="B62" t="n">
         <v>256</v>
       </c>
-      <c r="C62" t="n">
+      <c r="C62" s="2" t="n">
+        <v>45418</v>
+      </c>
+      <c r="D62" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45425</v>
+        <v>45431</v>
       </c>
       <c r="B63" t="n">
         <v>243</v>
       </c>
-      <c r="C63" t="n">
+      <c r="C63" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="D63" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45432</v>
+        <v>45438</v>
       </c>
       <c r="B64" t="n">
         <v>245</v>
       </c>
-      <c r="C64" t="n">
+      <c r="C64" s="2" t="n">
+        <v>45432</v>
+      </c>
+      <c r="D64" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45439</v>
+        <v>45445</v>
       </c>
       <c r="B65" t="n">
         <v>178</v>
       </c>
-      <c r="C65" t="n">
+      <c r="C65" s="2" t="n">
+        <v>45439</v>
+      </c>
+      <c r="D65" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45446</v>
+        <v>45452</v>
       </c>
       <c r="B66" t="n">
         <v>222</v>
       </c>
-      <c r="C66" t="n">
-        <v>2080</v>
+      <c r="C66" s="2" t="n">
+        <v>45446</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45453</v>
+        <v>45459</v>
       </c>
       <c r="B67" t="n">
         <v>233</v>
       </c>
-      <c r="C67" t="n">
-        <v>832</v>
+      <c r="C67" s="2" t="n">
+        <v>45453</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45460</v>
+        <v>45466</v>
       </c>
       <c r="B68" t="n">
         <v>162</v>
       </c>
-      <c r="C68" t="n">
-        <v>1040</v>
+      <c r="C68" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45467</v>
+        <v>45473</v>
       </c>
       <c r="B69" t="n">
         <v>158</v>
       </c>
-      <c r="C69" t="n">
-        <v>960</v>
+      <c r="C69" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45474</v>
+        <v>45480</v>
       </c>
       <c r="B70" t="n">
         <v>127</v>
       </c>
-      <c r="C70" t="n">
+      <c r="C70" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="D70" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45481</v>
+        <v>45487</v>
       </c>
       <c r="B71" t="n">
         <v>762</v>
       </c>
-      <c r="C71" t="n">
+      <c r="C71" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="D71" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45488</v>
+        <v>45494</v>
       </c>
       <c r="B72" t="n">
         <v>351</v>
       </c>
-      <c r="C72" t="n">
+      <c r="C72" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="D72" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45495</v>
+        <v>45501</v>
       </c>
       <c r="B73" t="n">
         <v>191</v>
       </c>
-      <c r="C73" t="n">
-        <v>144</v>
+      <c r="C73" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45502</v>
+        <v>45508</v>
       </c>
       <c r="B74" t="n">
         <v>131</v>
       </c>
-      <c r="C74" t="n">
-        <v>800</v>
+      <c r="C74" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45509</v>
+        <v>45515</v>
       </c>
       <c r="B75" t="n">
         <v>162</v>
       </c>
-      <c r="C75" t="n">
+      <c r="C75" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="D75" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45516</v>
+        <v>45522</v>
       </c>
       <c r="B76" t="n">
         <v>188</v>
       </c>
-      <c r="C76" t="n">
+      <c r="C76" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="D76" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45523</v>
+        <v>45529</v>
       </c>
       <c r="B77" t="n">
         <v>1368</v>
       </c>
-      <c r="C77" t="n">
-        <v>800</v>
+      <c r="C77" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45530</v>
+        <v>45536</v>
       </c>
       <c r="B78" t="n">
         <v>176</v>
       </c>
-      <c r="C78" t="n">
-        <v>16</v>
+      <c r="C78" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45537</v>
+        <v>45543</v>
       </c>
       <c r="B79" t="n">
         <v>161</v>
       </c>
-      <c r="C79" t="n">
-        <v>224</v>
+      <c r="C79" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45544</v>
+        <v>45550</v>
       </c>
       <c r="B80" t="n">
         <v>175</v>
       </c>
-      <c r="C80" t="n">
-        <v>672</v>
+      <c r="C80" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45551</v>
+        <v>45557</v>
       </c>
       <c r="B81" t="n">
         <v>211</v>
       </c>
-      <c r="C81" t="n">
-        <v>352</v>
+      <c r="C81" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45558</v>
+        <v>45564</v>
       </c>
       <c r="B82" t="n">
         <v>221</v>
       </c>
-      <c r="C82" t="n">
-        <v>896</v>
+      <c r="C82" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45565</v>
+        <v>45571</v>
       </c>
       <c r="B83" t="n">
         <v>218</v>
       </c>
-      <c r="C83" t="n">
-        <v>1136</v>
+      <c r="C83" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45572</v>
+        <v>45578</v>
       </c>
       <c r="B84" t="n">
         <v>237</v>
       </c>
-      <c r="C84" t="n">
-        <v>3104</v>
+      <c r="C84" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45579</v>
+        <v>45585</v>
       </c>
       <c r="B85" t="n">
         <v>144</v>
       </c>
-      <c r="C85" t="n">
-        <v>368</v>
+      <c r="C85" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="B86" t="n">
         <v>103</v>
       </c>
-      <c r="C86" t="n">
-        <v>400</v>
+      <c r="C86" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45593</v>
+        <v>45599</v>
       </c>
       <c r="B87" t="n">
         <v>66</v>
       </c>
-      <c r="C87" t="n">
-        <v>160</v>
+      <c r="C87" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="B88" t="n">
         <v>58</v>
       </c>
-      <c r="C88" t="n">
+      <c r="C88" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="D88" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45607</v>
+        <v>45613</v>
       </c>
       <c r="B89" t="n">
         <v>179</v>
       </c>
-      <c r="C89" t="n">
+      <c r="C89" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="D89" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45614</v>
+        <v>45620</v>
       </c>
       <c r="B90" t="n">
         <v>488</v>
       </c>
-      <c r="C90" t="n">
+      <c r="C90" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="D90" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="B91" t="n">
         <v>747</v>
       </c>
-      <c r="C91" t="n">
+      <c r="C91" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="D91" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>45628</v>
+        <v>45634</v>
       </c>
       <c r="B92" t="n">
         <v>277</v>
       </c>
-      <c r="C92" t="n">
+      <c r="C92" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="D92" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>45635</v>
+        <v>45641</v>
       </c>
       <c r="B93" t="n">
         <v>184</v>
       </c>
-      <c r="C93" t="n">
+      <c r="C93" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="D93" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>45642</v>
+        <v>45648</v>
       </c>
       <c r="B94" t="n">
         <v>99</v>
       </c>
-      <c r="C94" t="n">
+      <c r="C94" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="D94" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>45649</v>
+        <v>45655</v>
       </c>
       <c r="B95" t="n">
         <v>116</v>
       </c>
-      <c r="C95" t="n">
-        <v>0</v>
+      <c r="C95" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Requested_Qty</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Growth%</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45320</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2424</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="B3" t="n">
+        <v>4224</v>
+      </c>
+      <c r="C3" t="n">
+        <v>74.25742574257426</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45334</v>
+      </c>
+      <c r="B4" t="n">
+        <v>24</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-99.43181818181817</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1128</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4600</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45355</v>
+      </c>
+      <c r="B6" t="n">
+        <v>960</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-14.8936170212766</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="B7" t="n">
+        <v>64</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-93.33333333333333</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45369</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1304</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1937.5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45376</v>
+      </c>
+      <c r="B9" t="n">
+        <v>424</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-67.48466257668711</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="B10" t="n">
+        <v>912</v>
+      </c>
+      <c r="C10" t="n">
+        <v>115.0943396226415</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="B11" t="n">
+        <v>512</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-43.85964912280702</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45397</v>
+      </c>
+      <c r="B12" t="n">
+        <v>464</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-9.375</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45404</v>
+      </c>
+      <c r="B13" t="n">
+        <v>336</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-27.58620689655172</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="B14" t="n">
+        <v>576</v>
+      </c>
+      <c r="C14" t="n">
+        <v>71.42857142857142</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45446</v>
+      </c>
+      <c r="B15" t="n">
+        <v>2080</v>
+      </c>
+      <c r="C15" t="n">
+        <v>261.1111111111111</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45453</v>
+      </c>
+      <c r="B16" t="n">
+        <v>832</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1040</v>
+      </c>
+      <c r="C17" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B18" t="n">
+        <v>960</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-7.692307692307687</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B19" t="n">
+        <v>144</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-85</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B20" t="n">
+        <v>800</v>
+      </c>
+      <c r="C20" t="n">
+        <v>455.5555555555555</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B21" t="n">
+        <v>800</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B22" t="n">
+        <v>16</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-98</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B23" t="n">
+        <v>224</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B24" t="n">
+        <v>672</v>
+      </c>
+      <c r="C24" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B25" t="n">
+        <v>352</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-47.61904761904761</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B26" t="n">
+        <v>896</v>
+      </c>
+      <c r="C26" t="n">
+        <v>154.5454545454545</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1136</v>
+      </c>
+      <c r="C27" t="n">
+        <v>26.78571428571428</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B28" t="n">
+        <v>3104</v>
+      </c>
+      <c r="C28" t="n">
+        <v>173.2394366197183</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B29" t="n">
+        <v>368</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-88.14432989690721</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B30" t="n">
+        <v>400</v>
+      </c>
+      <c r="C30" t="n">
+        <v>8.695652173913038</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B31" t="n">
+        <v>160</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Total_PO_Quantity</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Average_PO_Quantity</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Max_PO_Quantity</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Min_PO_Quantity</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>27336</v>
+      </c>
+      <c r="B2" t="n">
+        <v>911.2</v>
+      </c>
+      <c r="C2" t="n">
+        <v>4224</v>
+      </c>
+      <c r="D2" t="n">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Predicted_Next_Week_PO_Quantity</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>493.0758620689656</v>
       </c>
     </row>
   </sheetData>

--- a/po forecast comparison/B0BYBHW4SH_sales_po_comparison.xlsx
+++ b/po forecast comparison/B0BYBHW4SH_sales_po_comparison.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D95"/>
+  <dimension ref="A1:C95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,1328 +453,1041 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Order Week</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
           <t>PO_Requested_Qty</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44948</v>
+        <v>44948.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="n">
-        <v>44942</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="C2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44955</v>
+        <v>44955.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
-      <c r="C3" s="2" t="n">
-        <v>44949</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="C3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44969</v>
+        <v>44969.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>49</v>
       </c>
-      <c r="C4" s="2" t="n">
-        <v>44963</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="C4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45018</v>
+        <v>45018.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" s="2" t="n">
-        <v>45012</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
+      <c r="C5" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45025</v>
+        <v>45025.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>9</v>
       </c>
-      <c r="C6" s="2" t="n">
-        <v>45019</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
+      <c r="C6" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45032</v>
+        <v>45032.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>30</v>
       </c>
-      <c r="C7" s="2" t="n">
-        <v>45026</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
+      <c r="C7" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45039</v>
+        <v>45039.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>53</v>
       </c>
-      <c r="C8" s="2" t="n">
-        <v>45033</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
+      <c r="C8" t="n">
+        <v>72</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45046</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>73</v>
       </c>
-      <c r="C9" s="2" t="n">
-        <v>45040</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
+      <c r="C9" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45053</v>
+        <v>45053.99999999999</v>
       </c>
       <c r="B10" t="n">
         <v>22</v>
       </c>
-      <c r="C10" s="2" t="n">
-        <v>45047</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
+      <c r="C10" t="n">
+        <v>88</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45060</v>
+        <v>45060.99999999999</v>
       </c>
       <c r="B11" t="n">
         <v>48</v>
       </c>
-      <c r="C11" s="2" t="n">
-        <v>45054</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
+      <c r="C11" t="n">
+        <v>112</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45067</v>
+        <v>45067.99999999999</v>
       </c>
       <c r="B12" t="n">
         <v>94</v>
       </c>
-      <c r="C12" s="2" t="n">
-        <v>45061</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
+      <c r="C12" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45074</v>
+        <v>45074.99999999999</v>
       </c>
       <c r="B13" t="n">
         <v>82</v>
       </c>
-      <c r="C13" s="2" t="n">
-        <v>45068</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
+      <c r="C13" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45081</v>
+        <v>45081.99999999999</v>
       </c>
       <c r="B14" t="n">
         <v>42</v>
       </c>
-      <c r="C14" s="2" t="n">
-        <v>45075</v>
-      </c>
-      <c r="D14" t="n">
+      <c r="C14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45088</v>
+        <v>45088.99999999999</v>
       </c>
       <c r="B15" t="n">
         <v>93</v>
       </c>
-      <c r="C15" s="2" t="n">
-        <v>45082</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
+      <c r="C15" t="n">
+        <v>272</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45095</v>
+        <v>45095.99999999999</v>
       </c>
       <c r="B16" t="n">
         <v>121</v>
       </c>
-      <c r="C16" s="2" t="n">
-        <v>45089</v>
-      </c>
-      <c r="D16" t="n">
+      <c r="C16" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45102</v>
+        <v>45102.99999999999</v>
       </c>
       <c r="B17" t="n">
         <v>149</v>
       </c>
-      <c r="C17" s="2" t="n">
-        <v>45096</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
+      <c r="C17" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45109</v>
+        <v>45109.99999999999</v>
       </c>
       <c r="B18" t="n">
         <v>101</v>
       </c>
-      <c r="C18" s="2" t="n">
-        <v>45103</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
+      <c r="C18" t="n">
+        <v>608</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45116</v>
+        <v>45116.99999999999</v>
       </c>
       <c r="B19" t="n">
         <v>150</v>
       </c>
-      <c r="C19" s="2" t="n">
-        <v>45110</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
+      <c r="C19" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45123</v>
+        <v>45123.99999999999</v>
       </c>
       <c r="B20" t="n">
         <v>162</v>
       </c>
-      <c r="C20" s="2" t="n">
-        <v>45117</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
+      <c r="C20" t="n">
+        <v>208</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45130</v>
+        <v>45130.99999999999</v>
       </c>
       <c r="B21" t="n">
         <v>110</v>
       </c>
-      <c r="C21" s="2" t="n">
-        <v>45124</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
+      <c r="C21" t="n">
+        <v>704</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45137</v>
+        <v>45137.99999999999</v>
       </c>
       <c r="B22" t="n">
         <v>18</v>
       </c>
-      <c r="C22" s="2" t="n">
-        <v>45131</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
+      <c r="C22" t="n">
+        <v>232</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45144</v>
+        <v>45144.99999999999</v>
       </c>
       <c r="B23" t="n">
         <v>34</v>
       </c>
-      <c r="C23" s="2" t="n">
-        <v>45138</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
+      <c r="C23" t="n">
+        <v>232</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45151</v>
+        <v>45151.99999999999</v>
       </c>
       <c r="B24" t="n">
         <v>113</v>
       </c>
-      <c r="C24" s="2" t="n">
-        <v>45145</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
+      <c r="C24" t="n">
+        <v>624</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45158</v>
+        <v>45158.99999999999</v>
       </c>
       <c r="B25" t="n">
         <v>209</v>
       </c>
-      <c r="C25" s="2" t="n">
-        <v>45152</v>
-      </c>
-      <c r="D25" t="n">
+      <c r="C25" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45165</v>
+        <v>45165.99999999999</v>
       </c>
       <c r="B26" t="n">
         <v>166</v>
       </c>
-      <c r="C26" s="2" t="n">
-        <v>45159</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
+      <c r="C26" t="n">
+        <v>744</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45172</v>
+        <v>45172.99999999999</v>
       </c>
       <c r="B27" t="n">
         <v>145</v>
       </c>
-      <c r="C27" s="2" t="n">
-        <v>45166</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0</v>
+      <c r="C27" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45179</v>
+        <v>45179.99999999999</v>
       </c>
       <c r="B28" t="n">
         <v>205</v>
       </c>
-      <c r="C28" s="2" t="n">
-        <v>45173</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
+      <c r="C28" t="n">
+        <v>496</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45186</v>
+        <v>45186.99999999999</v>
       </c>
       <c r="B29" t="n">
         <v>206</v>
       </c>
-      <c r="C29" s="2" t="n">
-        <v>45180</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
+      <c r="C29" t="n">
+        <v>296</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45193</v>
+        <v>45193.99999999999</v>
       </c>
       <c r="B30" t="n">
         <v>162</v>
       </c>
-      <c r="C30" s="2" t="n">
-        <v>45187</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0</v>
+      <c r="C30" t="n">
+        <v>296</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45200</v>
+        <v>45200.99999999999</v>
       </c>
       <c r="B31" t="n">
         <v>430</v>
       </c>
-      <c r="C31" s="2" t="n">
-        <v>45194</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0</v>
+      <c r="C31" t="n">
+        <v>512</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45207</v>
+        <v>45207.99999999999</v>
       </c>
       <c r="B32" t="n">
         <v>205</v>
       </c>
-      <c r="C32" s="2" t="n">
-        <v>45201</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
+      <c r="C32" t="n">
+        <v>112</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45214</v>
+        <v>45214.99999999999</v>
       </c>
       <c r="B33" t="n">
         <v>165</v>
       </c>
-      <c r="C33" s="2" t="n">
-        <v>45208</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0</v>
+      <c r="C33" t="n">
+        <v>1840</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45221</v>
+        <v>45221.99999999999</v>
       </c>
       <c r="B34" t="n">
         <v>141</v>
       </c>
-      <c r="C34" s="2" t="n">
-        <v>45215</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0</v>
+      <c r="C34" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45228</v>
+        <v>45228.99999999999</v>
       </c>
       <c r="B35" t="n">
         <v>108</v>
       </c>
-      <c r="C35" s="2" t="n">
-        <v>45222</v>
-      </c>
-      <c r="D35" t="n">
+      <c r="C35" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45235</v>
+        <v>45235.99999999999</v>
       </c>
       <c r="B36" t="n">
         <v>144</v>
       </c>
-      <c r="C36" s="2" t="n">
-        <v>45229</v>
-      </c>
-      <c r="D36" t="n">
+      <c r="C36" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45242</v>
+        <v>45242.99999999999</v>
       </c>
       <c r="B37" t="n">
         <v>828</v>
       </c>
-      <c r="C37" s="2" t="n">
-        <v>45236</v>
-      </c>
-      <c r="D37" t="n">
+      <c r="C37" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45249</v>
+        <v>45249.99999999999</v>
       </c>
       <c r="B38" t="n">
         <v>1463</v>
       </c>
-      <c r="C38" s="2" t="n">
-        <v>45243</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
+      <c r="C38" t="n">
+        <v>216</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45256</v>
+        <v>45256.99999999999</v>
       </c>
       <c r="B39" t="n">
         <v>342</v>
       </c>
-      <c r="C39" s="2" t="n">
-        <v>45250</v>
-      </c>
-      <c r="D39" t="n">
+      <c r="C39" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45263</v>
+        <v>45263.99999999999</v>
       </c>
       <c r="B40" t="n">
         <v>83</v>
       </c>
-      <c r="C40" s="2" t="n">
-        <v>45257</v>
-      </c>
-      <c r="D40" t="n">
+      <c r="C40" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45270</v>
+        <v>45270.99999999999</v>
       </c>
       <c r="B41" t="n">
         <v>77</v>
       </c>
-      <c r="C41" s="2" t="n">
-        <v>45264</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
+      <c r="C41" t="n">
+        <v>1304</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45277</v>
+        <v>45277.99999999999</v>
       </c>
       <c r="B42" t="n">
         <v>21</v>
       </c>
-      <c r="C42" s="2" t="n">
-        <v>45271</v>
-      </c>
-      <c r="D42" t="n">
+      <c r="C42" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45291</v>
+        <v>45291.99999999999</v>
       </c>
       <c r="B43" t="n">
         <v>29</v>
       </c>
-      <c r="C43" s="2" t="n">
-        <v>45285</v>
-      </c>
-      <c r="D43" t="n">
+      <c r="C43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45298</v>
+        <v>45298.99999999999</v>
       </c>
       <c r="B44" t="n">
         <v>0</v>
       </c>
-      <c r="C44" s="2" t="n">
-        <v>45292</v>
-      </c>
-      <c r="D44" t="n">
+      <c r="C44" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45305</v>
+        <v>45305.99999999999</v>
       </c>
       <c r="B45" t="n">
         <v>134</v>
       </c>
-      <c r="C45" s="2" t="n">
-        <v>45299</v>
-      </c>
-      <c r="D45" t="n">
+      <c r="C45" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45312</v>
+        <v>45312.99999999999</v>
       </c>
       <c r="B46" t="n">
         <v>181</v>
       </c>
-      <c r="C46" s="2" t="n">
-        <v>45306</v>
-      </c>
-      <c r="D46" t="n">
+      <c r="C46" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45319</v>
+        <v>45319.99999999999</v>
       </c>
       <c r="B47" t="n">
         <v>149</v>
       </c>
-      <c r="C47" s="2" t="n">
-        <v>45313</v>
-      </c>
-      <c r="D47" t="n">
+      <c r="C47" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45326</v>
+        <v>45326.99999999999</v>
       </c>
       <c r="B48" t="n">
         <v>238</v>
       </c>
-      <c r="C48" s="2" t="n">
-        <v>45320</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0</v>
+      <c r="C48" t="n">
+        <v>2424</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45333</v>
+        <v>45333.99999999999</v>
       </c>
       <c r="B49" t="n">
         <v>227</v>
       </c>
-      <c r="C49" s="2" t="n">
-        <v>45327</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0</v>
+      <c r="C49" t="n">
+        <v>4224</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45340</v>
+        <v>45340.99999999999</v>
       </c>
       <c r="B50" t="n">
         <v>340</v>
       </c>
-      <c r="C50" s="2" t="n">
-        <v>45334</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0</v>
+      <c r="C50" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45347</v>
+        <v>45347.99999999999</v>
       </c>
       <c r="B51" t="n">
         <v>395</v>
       </c>
-      <c r="C51" s="2" t="n">
-        <v>45341</v>
-      </c>
-      <c r="D51" t="n">
+      <c r="C51" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45354</v>
+        <v>45354.99999999999</v>
       </c>
       <c r="B52" t="n">
         <v>328</v>
       </c>
-      <c r="C52" s="2" t="n">
-        <v>45348</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0</v>
+      <c r="C52" t="n">
+        <v>1128</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45361</v>
+        <v>45361.99999999999</v>
       </c>
       <c r="B53" t="n">
         <v>277</v>
       </c>
-      <c r="C53" s="2" t="n">
-        <v>45355</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0</v>
+      <c r="C53" t="n">
+        <v>960</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45368</v>
+        <v>45368.99999999999</v>
       </c>
       <c r="B54" t="n">
         <v>283</v>
       </c>
-      <c r="C54" s="2" t="n">
-        <v>45362</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0</v>
+      <c r="C54" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45375</v>
+        <v>45375.99999999999</v>
       </c>
       <c r="B55" t="n">
         <v>271</v>
       </c>
-      <c r="C55" s="2" t="n">
-        <v>45369</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0</v>
+      <c r="C55" t="n">
+        <v>1304</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45382</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B56" t="n">
         <v>271</v>
       </c>
-      <c r="C56" s="2" t="n">
-        <v>45376</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0</v>
+      <c r="C56" t="n">
+        <v>424</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45389</v>
+        <v>45389.99999999999</v>
       </c>
       <c r="B57" t="n">
         <v>276</v>
       </c>
-      <c r="C57" s="2" t="n">
-        <v>45383</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0</v>
+      <c r="C57" t="n">
+        <v>912</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45396</v>
+        <v>45396.99999999999</v>
       </c>
       <c r="B58" t="n">
         <v>250</v>
       </c>
-      <c r="C58" s="2" t="n">
-        <v>45390</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0</v>
+      <c r="C58" t="n">
+        <v>512</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45403</v>
+        <v>45403.99999999999</v>
       </c>
       <c r="B59" t="n">
         <v>241</v>
       </c>
-      <c r="C59" s="2" t="n">
-        <v>45397</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0</v>
+      <c r="C59" t="n">
+        <v>464</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45410</v>
+        <v>45410.99999999999</v>
       </c>
       <c r="B60" t="n">
         <v>211</v>
       </c>
-      <c r="C60" s="2" t="n">
-        <v>45404</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0</v>
+      <c r="C60" t="n">
+        <v>336</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45417</v>
+        <v>45417.99999999999</v>
       </c>
       <c r="B61" t="n">
         <v>208</v>
       </c>
-      <c r="C61" s="2" t="n">
-        <v>45411</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0</v>
+      <c r="C61" t="n">
+        <v>576</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45424</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B62" t="n">
         <v>256</v>
       </c>
-      <c r="C62" s="2" t="n">
-        <v>45418</v>
-      </c>
-      <c r="D62" t="n">
+      <c r="C62" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45431</v>
+        <v>45431.99999999999</v>
       </c>
       <c r="B63" t="n">
         <v>243</v>
       </c>
-      <c r="C63" s="2" t="n">
-        <v>45425</v>
-      </c>
-      <c r="D63" t="n">
+      <c r="C63" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45438</v>
+        <v>45438.99999999999</v>
       </c>
       <c r="B64" t="n">
         <v>245</v>
       </c>
-      <c r="C64" s="2" t="n">
-        <v>45432</v>
-      </c>
-      <c r="D64" t="n">
+      <c r="C64" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45445</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B65" t="n">
         <v>178</v>
       </c>
-      <c r="C65" s="2" t="n">
-        <v>45439</v>
-      </c>
-      <c r="D65" t="n">
+      <c r="C65" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45452</v>
+        <v>45452.99999999999</v>
       </c>
       <c r="B66" t="n">
         <v>222</v>
       </c>
-      <c r="C66" s="2" t="n">
-        <v>45446</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0</v>
+      <c r="C66" t="n">
+        <v>2080</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45459</v>
+        <v>45459.99999999999</v>
       </c>
       <c r="B67" t="n">
         <v>233</v>
       </c>
-      <c r="C67" s="2" t="n">
-        <v>45453</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0</v>
+      <c r="C67" t="n">
+        <v>832</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45466</v>
+        <v>45466.99999999999</v>
       </c>
       <c r="B68" t="n">
         <v>162</v>
       </c>
-      <c r="C68" s="2" t="n">
-        <v>45460</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0</v>
+      <c r="C68" t="n">
+        <v>1040</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45473</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B69" t="n">
         <v>158</v>
       </c>
-      <c r="C69" s="2" t="n">
-        <v>45467</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0</v>
+      <c r="C69" t="n">
+        <v>960</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45480</v>
+        <v>45480.99999999999</v>
       </c>
       <c r="B70" t="n">
         <v>127</v>
       </c>
-      <c r="C70" s="2" t="n">
-        <v>45474</v>
-      </c>
-      <c r="D70" t="n">
+      <c r="C70" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45487</v>
+        <v>45487.99999999999</v>
       </c>
       <c r="B71" t="n">
         <v>762</v>
       </c>
-      <c r="C71" s="2" t="n">
-        <v>45481</v>
-      </c>
-      <c r="D71" t="n">
+      <c r="C71" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45494</v>
+        <v>45494.99999999999</v>
       </c>
       <c r="B72" t="n">
         <v>351</v>
       </c>
-      <c r="C72" s="2" t="n">
-        <v>45488</v>
-      </c>
-      <c r="D72" t="n">
+      <c r="C72" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45501</v>
+        <v>45501.99999999999</v>
       </c>
       <c r="B73" t="n">
         <v>191</v>
       </c>
-      <c r="C73" s="2" t="n">
-        <v>45495</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0</v>
+      <c r="C73" t="n">
+        <v>144</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45508</v>
+        <v>45508.99999999999</v>
       </c>
       <c r="B74" t="n">
         <v>131</v>
       </c>
-      <c r="C74" s="2" t="n">
-        <v>45502</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0</v>
+      <c r="C74" t="n">
+        <v>800</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45515</v>
+        <v>45515.99999999999</v>
       </c>
       <c r="B75" t="n">
         <v>162</v>
       </c>
-      <c r="C75" s="2" t="n">
-        <v>45509</v>
-      </c>
-      <c r="D75" t="n">
+      <c r="C75" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45522</v>
+        <v>45522.99999999999</v>
       </c>
       <c r="B76" t="n">
         <v>188</v>
       </c>
-      <c r="C76" s="2" t="n">
-        <v>45516</v>
-      </c>
-      <c r="D76" t="n">
+      <c r="C76" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45529</v>
+        <v>45529.99999999999</v>
       </c>
       <c r="B77" t="n">
         <v>1368</v>
       </c>
-      <c r="C77" s="2" t="n">
-        <v>45523</v>
-      </c>
-      <c r="D77" t="n">
-        <v>0</v>
+      <c r="C77" t="n">
+        <v>800</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45536</v>
+        <v>45536.99999999999</v>
       </c>
       <c r="B78" t="n">
         <v>176</v>
       </c>
-      <c r="C78" s="2" t="n">
-        <v>45530</v>
-      </c>
-      <c r="D78" t="n">
-        <v>0</v>
+      <c r="C78" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45543</v>
+        <v>45543.99999999999</v>
       </c>
       <c r="B79" t="n">
         <v>161</v>
       </c>
-      <c r="C79" s="2" t="n">
-        <v>45537</v>
-      </c>
-      <c r="D79" t="n">
-        <v>0</v>
+      <c r="C79" t="n">
+        <v>224</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45550</v>
+        <v>45550.99999999999</v>
       </c>
       <c r="B80" t="n">
         <v>175</v>
       </c>
-      <c r="C80" s="2" t="n">
-        <v>45544</v>
-      </c>
-      <c r="D80" t="n">
-        <v>0</v>
+      <c r="C80" t="n">
+        <v>672</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45557</v>
+        <v>45557.99999999999</v>
       </c>
       <c r="B81" t="n">
         <v>211</v>
       </c>
-      <c r="C81" s="2" t="n">
-        <v>45551</v>
-      </c>
-      <c r="D81" t="n">
-        <v>0</v>
+      <c r="C81" t="n">
+        <v>352</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45564</v>
+        <v>45564.99999999999</v>
       </c>
       <c r="B82" t="n">
         <v>221</v>
       </c>
-      <c r="C82" s="2" t="n">
-        <v>45558</v>
-      </c>
-      <c r="D82" t="n">
-        <v>0</v>
+      <c r="C82" t="n">
+        <v>896</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45571</v>
+        <v>45571.99999999999</v>
       </c>
       <c r="B83" t="n">
         <v>218</v>
       </c>
-      <c r="C83" s="2" t="n">
-        <v>45565</v>
-      </c>
-      <c r="D83" t="n">
-        <v>0</v>
+      <c r="C83" t="n">
+        <v>1136</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45578</v>
+        <v>45578.99999999999</v>
       </c>
       <c r="B84" t="n">
         <v>237</v>
       </c>
-      <c r="C84" s="2" t="n">
-        <v>45572</v>
-      </c>
-      <c r="D84" t="n">
-        <v>0</v>
+      <c r="C84" t="n">
+        <v>3104</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45585</v>
+        <v>45585.99999999999</v>
       </c>
       <c r="B85" t="n">
         <v>144</v>
       </c>
-      <c r="C85" s="2" t="n">
-        <v>45579</v>
-      </c>
-      <c r="D85" t="n">
-        <v>0</v>
+      <c r="C85" t="n">
+        <v>368</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45592</v>
+        <v>45592.99999999999</v>
       </c>
       <c r="B86" t="n">
         <v>103</v>
       </c>
-      <c r="C86" s="2" t="n">
-        <v>45586</v>
-      </c>
-      <c r="D86" t="n">
-        <v>0</v>
+      <c r="C86" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45599</v>
+        <v>45599.99999999999</v>
       </c>
       <c r="B87" t="n">
         <v>66</v>
       </c>
-      <c r="C87" s="2" t="n">
-        <v>45593</v>
-      </c>
-      <c r="D87" t="n">
-        <v>0</v>
+      <c r="C87" t="n">
+        <v>160</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>45606</v>
+        <v>45606.99999999999</v>
       </c>
       <c r="B88" t="n">
         <v>58</v>
       </c>
-      <c r="C88" s="2" t="n">
-        <v>45600</v>
-      </c>
-      <c r="D88" t="n">
+      <c r="C88" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45613</v>
+        <v>45613.99999999999</v>
       </c>
       <c r="B89" t="n">
         <v>179</v>
       </c>
-      <c r="C89" s="2" t="n">
-        <v>45607</v>
-      </c>
-      <c r="D89" t="n">
+      <c r="C89" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45620</v>
+        <v>45620.99999999999</v>
       </c>
       <c r="B90" t="n">
         <v>488</v>
       </c>
-      <c r="C90" s="2" t="n">
-        <v>45614</v>
-      </c>
-      <c r="D90" t="n">
+      <c r="C90" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45627</v>
+        <v>45627.99999999999</v>
       </c>
       <c r="B91" t="n">
         <v>747</v>
       </c>
-      <c r="C91" s="2" t="n">
-        <v>45621</v>
-      </c>
-      <c r="D91" t="n">
+      <c r="C91" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>45634</v>
+        <v>45634.99999999999</v>
       </c>
       <c r="B92" t="n">
         <v>277</v>
       </c>
-      <c r="C92" s="2" t="n">
-        <v>45628</v>
-      </c>
-      <c r="D92" t="n">
+      <c r="C92" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>45641</v>
+        <v>45641.99999999999</v>
       </c>
       <c r="B93" t="n">
         <v>184</v>
       </c>
-      <c r="C93" s="2" t="n">
-        <v>45635</v>
-      </c>
-      <c r="D93" t="n">
+      <c r="C93" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>45648</v>
+        <v>45648.99999999999</v>
       </c>
       <c r="B94" t="n">
         <v>99</v>
       </c>
-      <c r="C94" s="2" t="n">
-        <v>45642</v>
-      </c>
-      <c r="D94" t="n">
+      <c r="C94" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>45655</v>
+        <v>45655.99999999999</v>
       </c>
       <c r="B95" t="n">
         <v>116</v>
       </c>
-      <c r="C95" s="2" t="n">
-        <v>45649</v>
-      </c>
-      <c r="D95" t="n">
+      <c r="C95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1789,7 +1502,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1816,10 +1529,10 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45320</v>
+        <v>45018.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>2424</v>
+        <v>16</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1827,320 +1540,639 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45327</v>
+        <v>45025.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>4224</v>
+        <v>16</v>
       </c>
       <c r="C3" t="n">
-        <v>74.25742574257426</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45334</v>
+        <v>45032.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C4" t="n">
-        <v>-99.43181818181817</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45348</v>
+        <v>45039.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>1128</v>
+        <v>72</v>
       </c>
       <c r="C5" t="n">
-        <v>4600</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45355</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>960</v>
+        <v>64</v>
       </c>
       <c r="C6" t="n">
-        <v>-14.8936170212766</v>
+        <v>-11.11111111111112</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45362</v>
+        <v>45053.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="C7" t="n">
-        <v>-93.33333333333333</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45369</v>
+        <v>45060.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>1304</v>
+        <v>112</v>
       </c>
       <c r="C8" t="n">
-        <v>1937.5</v>
+        <v>27.27272727272727</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45376</v>
+        <v>45067.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>424</v>
+        <v>200</v>
       </c>
       <c r="C9" t="n">
-        <v>-67.48466257668711</v>
+        <v>78.57142857142858</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45383</v>
+        <v>45074.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>912</v>
+        <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>115.0943396226415</v>
+        <v>-96</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45390</v>
+        <v>45088.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>512</v>
+        <v>272</v>
       </c>
       <c r="C11" t="n">
-        <v>-43.85964912280702</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45397</v>
+        <v>45102.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>464</v>
+        <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>-9.375</v>
+        <v>-97.05882352941177</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45404</v>
+        <v>45109.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>336</v>
+        <v>608</v>
       </c>
       <c r="C13" t="n">
-        <v>-27.58620689655172</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45411</v>
+        <v>45116.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>576</v>
+        <v>16</v>
       </c>
       <c r="C14" t="n">
-        <v>71.42857142857142</v>
+        <v>-97.36842105263158</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45446</v>
+        <v>45123.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>2080</v>
+        <v>208</v>
       </c>
       <c r="C15" t="n">
-        <v>261.1111111111111</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45453</v>
+        <v>45130.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>832</v>
+        <v>704</v>
       </c>
       <c r="C16" t="n">
-        <v>-60</v>
+        <v>238.4615384615385</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45460</v>
+        <v>45137.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>1040</v>
+        <v>232</v>
       </c>
       <c r="C17" t="n">
-        <v>25</v>
+        <v>-67.04545454545455</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45467</v>
+        <v>45144.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>960</v>
+        <v>232</v>
       </c>
       <c r="C18" t="n">
-        <v>-7.692307692307687</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45495</v>
+        <v>45151.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>144</v>
+        <v>624</v>
       </c>
       <c r="C19" t="n">
-        <v>-85</v>
+        <v>168.9655172413793</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45502</v>
+        <v>45165.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>800</v>
+        <v>744</v>
       </c>
       <c r="C20" t="n">
-        <v>455.5555555555555</v>
+        <v>19.23076923076923</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45523</v>
+        <v>45172.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>800</v>
+        <v>8</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>-98.9247311827957</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45530</v>
+        <v>45179.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>16</v>
+        <v>496</v>
       </c>
       <c r="C22" t="n">
-        <v>-98</v>
+        <v>6100</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45537</v>
+        <v>45186.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>224</v>
+        <v>296</v>
       </c>
       <c r="C23" t="n">
-        <v>1300</v>
+        <v>-40.32258064516129</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45544</v>
+        <v>45193.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>672</v>
+        <v>296</v>
       </c>
       <c r="C24" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45551</v>
+        <v>45200.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>352</v>
+        <v>512</v>
       </c>
       <c r="C25" t="n">
-        <v>-47.61904761904761</v>
+        <v>72.97297297297298</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45558</v>
+        <v>45207.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>896</v>
+        <v>112</v>
       </c>
       <c r="C26" t="n">
-        <v>154.5454545454545</v>
+        <v>-78.125</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45565</v>
+        <v>45214.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>1136</v>
+        <v>1840</v>
       </c>
       <c r="C27" t="n">
-        <v>26.78571428571428</v>
+        <v>1542.857142857143</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45572</v>
+        <v>45221.99999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>3104</v>
+        <v>1000</v>
       </c>
       <c r="C28" t="n">
-        <v>173.2394366197183</v>
+        <v>-45.65217391304348</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45579</v>
+        <v>45249.99999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>368</v>
+        <v>216</v>
       </c>
       <c r="C29" t="n">
-        <v>-88.14432989690721</v>
+        <v>-78.40000000000001</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45586</v>
+        <v>45270.99999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>400</v>
+        <v>1304</v>
       </c>
       <c r="C30" t="n">
-        <v>8.695652173913038</v>
+        <v>503.7037037037037</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45593</v>
+        <v>45326.99999999999</v>
       </c>
       <c r="B31" t="n">
+        <v>2424</v>
+      </c>
+      <c r="C31" t="n">
+        <v>85.88957055214723</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>4224</v>
+      </c>
+      <c r="C32" t="n">
+        <v>74.25742574257426</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>24</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-99.43181818181817</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1128</v>
+      </c>
+      <c r="C34" t="n">
+        <v>4600</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>960</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-14.8936170212766</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>64</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-93.33333333333333</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1304</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1937.5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>424</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-67.48466257668711</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>912</v>
+      </c>
+      <c r="C39" t="n">
+        <v>115.0943396226415</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>512</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-43.85964912280702</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>464</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-9.375</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>336</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-27.58620689655172</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>576</v>
+      </c>
+      <c r="C43" t="n">
+        <v>71.42857142857142</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>2080</v>
+      </c>
+      <c r="C44" t="n">
+        <v>261.1111111111111</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>832</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>1040</v>
+      </c>
+      <c r="C46" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>960</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-7.692307692307687</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>144</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-85</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45508.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>800</v>
+      </c>
+      <c r="C49" t="n">
+        <v>455.5555555555555</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>800</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>16</v>
+      </c>
+      <c r="C51" t="n">
+        <v>-98</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>224</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>672</v>
+      </c>
+      <c r="C53" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B54" t="n">
+        <v>352</v>
+      </c>
+      <c r="C54" t="n">
+        <v>-47.61904761904761</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B55" t="n">
+        <v>896</v>
+      </c>
+      <c r="C55" t="n">
+        <v>154.5454545454545</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B56" t="n">
+        <v>1136</v>
+      </c>
+      <c r="C56" t="n">
+        <v>26.78571428571428</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B57" t="n">
+        <v>3104</v>
+      </c>
+      <c r="C57" t="n">
+        <v>173.2394366197183</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B58" t="n">
+        <v>368</v>
+      </c>
+      <c r="C58" t="n">
+        <v>-88.14432989690721</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B59" t="n">
+        <v>400</v>
+      </c>
+      <c r="C59" t="n">
+        <v>8.695652173913038</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B60" t="n">
         <v>160</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C60" t="n">
         <v>-60</v>
       </c>
     </row>
@@ -2187,16 +2219,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>27336</v>
+        <v>37680</v>
       </c>
       <c r="B2" t="n">
-        <v>911.2</v>
+        <v>638.6440677966102</v>
       </c>
       <c r="C2" t="n">
         <v>4224</v>
       </c>
       <c r="D2" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -2227,7 +2259,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>493.0758620689656</v>
+        <v>1065.902980713033</v>
       </c>
     </row>
   </sheetData>

--- a/po forecast comparison/B0BYBHW4SH_sales_po_comparison.xlsx
+++ b/po forecast comparison/B0BYBHW4SH_sales_po_comparison.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B96"/>
+  <dimension ref="A1:B97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1211,6 +1211,14 @@
       </c>
       <c r="B96" t="n">
         <v>74</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B97" t="n">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -41776,7 +41784,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C438"/>
+  <dimension ref="A1:C439"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44427,7 +44435,7 @@
         <v>0</v>
       </c>
       <c r="C240" t="n">
-        <v>8</v>
+        <v>64</v>
       </c>
     </row>
     <row r="241">
@@ -44471,7 +44479,7 @@
         <v>0</v>
       </c>
       <c r="C244" t="n">
-        <v>64</v>
+        <v>8</v>
       </c>
     </row>
     <row r="245">
@@ -44746,7 +44754,7 @@
         <v>0</v>
       </c>
       <c r="C269" t="n">
-        <v>32</v>
+        <v>144</v>
       </c>
     </row>
     <row r="270">
@@ -44757,7 +44765,7 @@
         <v>0</v>
       </c>
       <c r="C270" t="n">
-        <v>104</v>
+        <v>8</v>
       </c>
     </row>
     <row r="271">
@@ -44768,7 +44776,7 @@
         <v>0</v>
       </c>
       <c r="C271" t="n">
-        <v>144</v>
+        <v>104</v>
       </c>
     </row>
     <row r="272">
@@ -44779,7 +44787,7 @@
         <v>0</v>
       </c>
       <c r="C272" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="273">
@@ -44801,7 +44809,7 @@
         <v>0</v>
       </c>
       <c r="C274" t="n">
-        <v>32</v>
+        <v>144</v>
       </c>
     </row>
     <row r="275">
@@ -44812,7 +44820,7 @@
         <v>0</v>
       </c>
       <c r="C275" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="276">
@@ -44823,7 +44831,7 @@
         <v>0</v>
       </c>
       <c r="C276" t="n">
-        <v>144</v>
+        <v>8</v>
       </c>
     </row>
     <row r="277">
@@ -44889,7 +44897,7 @@
         <v>0</v>
       </c>
       <c r="C282" t="n">
-        <v>104</v>
+        <v>32</v>
       </c>
     </row>
     <row r="283">
@@ -44900,7 +44908,7 @@
         <v>0</v>
       </c>
       <c r="C283" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="284">
@@ -44911,7 +44919,7 @@
         <v>0</v>
       </c>
       <c r="C284" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="285">
@@ -44933,7 +44941,7 @@
         <v>0</v>
       </c>
       <c r="C286" t="n">
-        <v>32</v>
+        <v>48</v>
       </c>
     </row>
     <row r="287">
@@ -44944,7 +44952,7 @@
         <v>0</v>
       </c>
       <c r="C287" t="n">
-        <v>48</v>
+        <v>216</v>
       </c>
     </row>
     <row r="288">
@@ -44955,7 +44963,7 @@
         <v>0</v>
       </c>
       <c r="C288" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="289">
@@ -44966,7 +44974,7 @@
         <v>0</v>
       </c>
       <c r="C289" t="n">
-        <v>8</v>
+        <v>104</v>
       </c>
     </row>
     <row r="290">
@@ -44977,7 +44985,7 @@
         <v>0</v>
       </c>
       <c r="C290" t="n">
-        <v>104</v>
+        <v>32</v>
       </c>
     </row>
     <row r="291">
@@ -44988,7 +44996,7 @@
         <v>0</v>
       </c>
       <c r="C291" t="n">
-        <v>8</v>
+        <v>104</v>
       </c>
     </row>
     <row r="292">
@@ -45032,7 +45040,7 @@
         <v>0</v>
       </c>
       <c r="C295" t="n">
-        <v>216</v>
+        <v>8</v>
       </c>
     </row>
     <row r="296">
@@ -45087,7 +45095,7 @@
         <v>0</v>
       </c>
       <c r="C300" t="n">
-        <v>96</v>
+        <v>8</v>
       </c>
     </row>
     <row r="301">
@@ -45098,7 +45106,7 @@
         <v>0</v>
       </c>
       <c r="C301" t="n">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="302">
@@ -45153,7 +45161,7 @@
         <v>0</v>
       </c>
       <c r="C306" t="n">
-        <v>8</v>
+        <v>104</v>
       </c>
     </row>
     <row r="307">
@@ -45494,7 +45502,7 @@
         <v>0</v>
       </c>
       <c r="C337" t="n">
-        <v>96</v>
+        <v>32</v>
       </c>
     </row>
     <row r="338">
@@ -45505,7 +45513,7 @@
         <v>0</v>
       </c>
       <c r="C338" t="n">
-        <v>32</v>
+        <v>96</v>
       </c>
     </row>
     <row r="339">
@@ -45582,7 +45590,7 @@
         <v>0</v>
       </c>
       <c r="C345" t="n">
-        <v>112</v>
+        <v>176</v>
       </c>
     </row>
     <row r="346">
@@ -45604,7 +45612,7 @@
         <v>0</v>
       </c>
       <c r="C347" t="n">
-        <v>80</v>
+        <v>112</v>
       </c>
     </row>
     <row r="348">
@@ -45626,7 +45634,7 @@
         <v>0</v>
       </c>
       <c r="C349" t="n">
-        <v>80</v>
+        <v>8</v>
       </c>
     </row>
     <row r="350">
@@ -45670,7 +45678,7 @@
         <v>0</v>
       </c>
       <c r="C353" t="n">
-        <v>176</v>
+        <v>80</v>
       </c>
     </row>
     <row r="354">
@@ -45681,7 +45689,7 @@
         <v>0</v>
       </c>
       <c r="C354" t="n">
-        <v>8</v>
+        <v>80</v>
       </c>
     </row>
     <row r="355">
@@ -45813,7 +45821,7 @@
         <v>0</v>
       </c>
       <c r="C366" t="n">
-        <v>88</v>
+        <v>144</v>
       </c>
     </row>
     <row r="367">
@@ -45824,7 +45832,7 @@
         <v>0</v>
       </c>
       <c r="C367" t="n">
-        <v>144</v>
+        <v>88</v>
       </c>
     </row>
     <row r="368">
@@ -45846,7 +45854,7 @@
         <v>0</v>
       </c>
       <c r="C369" t="n">
-        <v>88</v>
+        <v>144</v>
       </c>
     </row>
     <row r="370">
@@ -45857,7 +45865,7 @@
         <v>0</v>
       </c>
       <c r="C370" t="n">
-        <v>168</v>
+        <v>88</v>
       </c>
     </row>
     <row r="371">
@@ -45868,7 +45876,7 @@
         <v>0</v>
       </c>
       <c r="C371" t="n">
-        <v>144</v>
+        <v>168</v>
       </c>
     </row>
     <row r="372">
@@ -46000,7 +46008,7 @@
         <v>0</v>
       </c>
       <c r="C383" t="n">
-        <v>48</v>
+        <v>64</v>
       </c>
     </row>
     <row r="384">
@@ -46011,7 +46019,7 @@
         <v>0</v>
       </c>
       <c r="C384" t="n">
-        <v>64</v>
+        <v>48</v>
       </c>
     </row>
     <row r="385">
@@ -46132,7 +46140,7 @@
         <v>0</v>
       </c>
       <c r="C395" t="n">
-        <v>16</v>
+        <v>160</v>
       </c>
     </row>
     <row r="396">
@@ -46143,7 +46151,7 @@
         <v>0</v>
       </c>
       <c r="C396" t="n">
-        <v>160</v>
+        <v>16</v>
       </c>
     </row>
     <row r="397">
@@ -46605,6 +46613,17 @@
         <v>74</v>
       </c>
       <c r="C438" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B439" t="n">
+        <v>37</v>
+      </c>
+      <c r="C439" t="n">
         <v>0</v>
       </c>
     </row>

--- a/po forecast comparison/B0BYBHW4SH_sales_po_comparison.xlsx
+++ b/po forecast comparison/B0BYBHW4SH_sales_po_comparison.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B97"/>
+  <dimension ref="A1:B98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1219,6 +1219,14 @@
       </c>
       <c r="B97" t="n">
         <v>37</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B98" t="n">
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -41784,7 +41792,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C439"/>
+  <dimension ref="A1:C440"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42675,7 +42683,7 @@
         <v>0</v>
       </c>
       <c r="C80" t="n">
-        <v>8</v>
+        <v>152</v>
       </c>
     </row>
     <row r="81">
@@ -42686,7 +42694,7 @@
         <v>0</v>
       </c>
       <c r="C81" t="n">
-        <v>152</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82">
@@ -42785,7 +42793,7 @@
         <v>0</v>
       </c>
       <c r="C90" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
     </row>
     <row r="91">
@@ -42807,7 +42815,7 @@
         <v>0</v>
       </c>
       <c r="C92" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
     </row>
     <row r="93">
@@ -42873,7 +42881,7 @@
         <v>0</v>
       </c>
       <c r="C98" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="99">
@@ -42884,7 +42892,7 @@
         <v>0</v>
       </c>
       <c r="C99" t="n">
-        <v>40</v>
+        <v>880</v>
       </c>
     </row>
     <row r="100">
@@ -42895,7 +42903,7 @@
         <v>0</v>
       </c>
       <c r="C100" t="n">
-        <v>880</v>
+        <v>8</v>
       </c>
     </row>
     <row r="101">
@@ -42906,7 +42914,7 @@
         <v>0</v>
       </c>
       <c r="C101" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="102">
@@ -43258,7 +43266,7 @@
         <v>0</v>
       </c>
       <c r="C133" t="n">
-        <v>48</v>
+        <v>240</v>
       </c>
     </row>
     <row r="134">
@@ -43269,7 +43277,7 @@
         <v>0</v>
       </c>
       <c r="C134" t="n">
-        <v>240</v>
+        <v>744</v>
       </c>
     </row>
     <row r="135">
@@ -43280,7 +43288,7 @@
         <v>0</v>
       </c>
       <c r="C135" t="n">
-        <v>744</v>
+        <v>16</v>
       </c>
     </row>
     <row r="136">
@@ -43291,7 +43299,7 @@
         <v>0</v>
       </c>
       <c r="C136" t="n">
-        <v>16</v>
+        <v>112</v>
       </c>
     </row>
     <row r="137">
@@ -43313,7 +43321,7 @@
         <v>0</v>
       </c>
       <c r="C138" t="n">
-        <v>48</v>
+        <v>168</v>
       </c>
     </row>
     <row r="139">
@@ -43324,7 +43332,7 @@
         <v>0</v>
       </c>
       <c r="C139" t="n">
-        <v>168</v>
+        <v>72</v>
       </c>
     </row>
     <row r="140">
@@ -43335,7 +43343,7 @@
         <v>0</v>
       </c>
       <c r="C140" t="n">
-        <v>72</v>
+        <v>48</v>
       </c>
     </row>
     <row r="141">
@@ -43346,7 +43354,7 @@
         <v>0</v>
       </c>
       <c r="C141" t="n">
-        <v>112</v>
+        <v>48</v>
       </c>
     </row>
     <row r="142">
@@ -43368,7 +43376,7 @@
         <v>0</v>
       </c>
       <c r="C143" t="n">
-        <v>72</v>
+        <v>744</v>
       </c>
     </row>
     <row r="144">
@@ -43401,7 +43409,7 @@
         <v>0</v>
       </c>
       <c r="C146" t="n">
-        <v>744</v>
+        <v>48</v>
       </c>
     </row>
     <row r="147">
@@ -43412,7 +43420,7 @@
         <v>0</v>
       </c>
       <c r="C147" t="n">
-        <v>48</v>
+        <v>72</v>
       </c>
     </row>
     <row r="148">
@@ -43665,7 +43673,7 @@
         <v>0</v>
       </c>
       <c r="C170" t="n">
-        <v>184</v>
+        <v>72</v>
       </c>
     </row>
     <row r="171">
@@ -43709,7 +43717,7 @@
         <v>0</v>
       </c>
       <c r="C174" t="n">
-        <v>72</v>
+        <v>48</v>
       </c>
     </row>
     <row r="175">
@@ -43742,7 +43750,7 @@
         <v>0</v>
       </c>
       <c r="C177" t="n">
-        <v>48</v>
+        <v>184</v>
       </c>
     </row>
     <row r="178">
@@ -43764,7 +43772,7 @@
         <v>0</v>
       </c>
       <c r="C179" t="n">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="180">
@@ -43775,7 +43783,7 @@
         <v>0</v>
       </c>
       <c r="C180" t="n">
-        <v>200</v>
+        <v>136</v>
       </c>
     </row>
     <row r="181">
@@ -43786,7 +43794,7 @@
         <v>0</v>
       </c>
       <c r="C181" t="n">
-        <v>128</v>
+        <v>200</v>
       </c>
     </row>
     <row r="182">
@@ -43819,7 +43827,7 @@
         <v>0</v>
       </c>
       <c r="C184" t="n">
-        <v>200</v>
+        <v>128</v>
       </c>
     </row>
     <row r="185">
@@ -43830,7 +43838,7 @@
         <v>0</v>
       </c>
       <c r="C185" t="n">
-        <v>136</v>
+        <v>200</v>
       </c>
     </row>
     <row r="186">
@@ -43841,7 +43849,7 @@
         <v>0</v>
       </c>
       <c r="C186" t="n">
-        <v>128</v>
+        <v>136</v>
       </c>
     </row>
     <row r="187">
@@ -43940,7 +43948,7 @@
         <v>0</v>
       </c>
       <c r="C195" t="n">
-        <v>80</v>
+        <v>16</v>
       </c>
     </row>
     <row r="196">
@@ -43951,7 +43959,7 @@
         <v>0</v>
       </c>
       <c r="C196" t="n">
-        <v>152</v>
+        <v>40</v>
       </c>
     </row>
     <row r="197">
@@ -43962,7 +43970,7 @@
         <v>0</v>
       </c>
       <c r="C197" t="n">
-        <v>80</v>
+        <v>152</v>
       </c>
     </row>
     <row r="198">
@@ -43973,7 +43981,7 @@
         <v>0</v>
       </c>
       <c r="C198" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="199">
@@ -43984,7 +43992,7 @@
         <v>0</v>
       </c>
       <c r="C199" t="n">
-        <v>128</v>
+        <v>80</v>
       </c>
     </row>
     <row r="200">
@@ -43995,7 +44003,7 @@
         <v>0</v>
       </c>
       <c r="C200" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="201">
@@ -44006,7 +44014,7 @@
         <v>0</v>
       </c>
       <c r="C201" t="n">
-        <v>152</v>
+        <v>64</v>
       </c>
     </row>
     <row r="202">
@@ -44017,7 +44025,7 @@
         <v>0</v>
       </c>
       <c r="C202" t="n">
-        <v>40</v>
+        <v>152</v>
       </c>
     </row>
     <row r="203">
@@ -44028,7 +44036,7 @@
         <v>0</v>
       </c>
       <c r="C203" t="n">
-        <v>16</v>
+        <v>128</v>
       </c>
     </row>
     <row r="204">
@@ -44039,7 +44047,7 @@
         <v>0</v>
       </c>
       <c r="C204" t="n">
-        <v>64</v>
+        <v>40</v>
       </c>
     </row>
     <row r="205">
@@ -44050,7 +44058,7 @@
         <v>0</v>
       </c>
       <c r="C205" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
     <row r="206">
@@ -44182,7 +44190,7 @@
         <v>0</v>
       </c>
       <c r="C217" t="n">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="218">
@@ -44193,7 +44201,7 @@
         <v>0</v>
       </c>
       <c r="C218" t="n">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="219">
@@ -44204,7 +44212,7 @@
         <v>0</v>
       </c>
       <c r="C219" t="n">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="220">
@@ -44215,7 +44223,7 @@
         <v>0</v>
       </c>
       <c r="C220" t="n">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="221">
@@ -44369,7 +44377,7 @@
         <v>0</v>
       </c>
       <c r="C234" t="n">
-        <v>232</v>
+        <v>8</v>
       </c>
     </row>
     <row r="235">
@@ -44380,7 +44388,7 @@
         <v>0</v>
       </c>
       <c r="C235" t="n">
-        <v>40</v>
+        <v>232</v>
       </c>
     </row>
     <row r="236">
@@ -44391,7 +44399,7 @@
         <v>0</v>
       </c>
       <c r="C236" t="n">
-        <v>8</v>
+        <v>40</v>
       </c>
     </row>
     <row r="237">
@@ -44435,7 +44443,7 @@
         <v>0</v>
       </c>
       <c r="C240" t="n">
-        <v>64</v>
+        <v>96</v>
       </c>
     </row>
     <row r="241">
@@ -44446,7 +44454,7 @@
         <v>0</v>
       </c>
       <c r="C241" t="n">
-        <v>96</v>
+        <v>16</v>
       </c>
     </row>
     <row r="242">
@@ -44457,7 +44465,7 @@
         <v>0</v>
       </c>
       <c r="C242" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="243">
@@ -44468,7 +44476,7 @@
         <v>0</v>
       </c>
       <c r="C243" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="244">
@@ -44479,7 +44487,7 @@
         <v>0</v>
       </c>
       <c r="C244" t="n">
-        <v>8</v>
+        <v>64</v>
       </c>
     </row>
     <row r="245">
@@ -44501,7 +44509,7 @@
         <v>0</v>
       </c>
       <c r="C246" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="247">
@@ -44512,7 +44520,7 @@
         <v>0</v>
       </c>
       <c r="C247" t="n">
-        <v>8</v>
+        <v>48</v>
       </c>
     </row>
     <row r="248">
@@ -44523,7 +44531,7 @@
         <v>0</v>
       </c>
       <c r="C248" t="n">
-        <v>48</v>
+        <v>96</v>
       </c>
     </row>
     <row r="249">
@@ -44534,7 +44542,7 @@
         <v>0</v>
       </c>
       <c r="C249" t="n">
-        <v>96</v>
+        <v>64</v>
       </c>
     </row>
     <row r="250">
@@ -44545,7 +44553,7 @@
         <v>0</v>
       </c>
       <c r="C250" t="n">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="251">
@@ -44556,7 +44564,7 @@
         <v>0</v>
       </c>
       <c r="C251" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="252">
@@ -44578,7 +44586,7 @@
         <v>0</v>
       </c>
       <c r="C253" t="n">
-        <v>128</v>
+        <v>40</v>
       </c>
     </row>
     <row r="254">
@@ -44589,7 +44597,7 @@
         <v>0</v>
       </c>
       <c r="C254" t="n">
-        <v>40</v>
+        <v>128</v>
       </c>
     </row>
     <row r="255">
@@ -44600,7 +44608,7 @@
         <v>0</v>
       </c>
       <c r="C255" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="256">
@@ -44611,7 +44619,7 @@
         <v>0</v>
       </c>
       <c r="C256" t="n">
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
     <row r="257">
@@ -44677,7 +44685,7 @@
         <v>0</v>
       </c>
       <c r="C262" t="n">
-        <v>72</v>
+        <v>56</v>
       </c>
     </row>
     <row r="263">
@@ -44688,7 +44696,7 @@
         <v>0</v>
       </c>
       <c r="C263" t="n">
-        <v>56</v>
+        <v>72</v>
       </c>
     </row>
     <row r="264">
@@ -44699,7 +44707,7 @@
         <v>0</v>
       </c>
       <c r="C264" t="n">
-        <v>40</v>
+        <v>56</v>
       </c>
     </row>
     <row r="265">
@@ -44721,7 +44729,7 @@
         <v>0</v>
       </c>
       <c r="C266" t="n">
-        <v>72</v>
+        <v>40</v>
       </c>
     </row>
     <row r="267">
@@ -44732,7 +44740,7 @@
         <v>0</v>
       </c>
       <c r="C267" t="n">
-        <v>56</v>
+        <v>72</v>
       </c>
     </row>
     <row r="268">
@@ -44754,7 +44762,7 @@
         <v>0</v>
       </c>
       <c r="C269" t="n">
-        <v>144</v>
+        <v>104</v>
       </c>
     </row>
     <row r="270">
@@ -44776,7 +44784,7 @@
         <v>0</v>
       </c>
       <c r="C271" t="n">
-        <v>104</v>
+        <v>144</v>
       </c>
     </row>
     <row r="272">
@@ -44798,7 +44806,7 @@
         <v>0</v>
       </c>
       <c r="C273" t="n">
-        <v>104</v>
+        <v>144</v>
       </c>
     </row>
     <row r="274">
@@ -44809,7 +44817,7 @@
         <v>0</v>
       </c>
       <c r="C274" t="n">
-        <v>144</v>
+        <v>32</v>
       </c>
     </row>
     <row r="275">
@@ -44820,7 +44828,7 @@
         <v>0</v>
       </c>
       <c r="C275" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="276">
@@ -44831,7 +44839,7 @@
         <v>0</v>
       </c>
       <c r="C276" t="n">
-        <v>8</v>
+        <v>104</v>
       </c>
     </row>
     <row r="277">
@@ -44897,7 +44905,7 @@
         <v>0</v>
       </c>
       <c r="C282" t="n">
-        <v>32</v>
+        <v>48</v>
       </c>
     </row>
     <row r="283">
@@ -44908,7 +44916,7 @@
         <v>0</v>
       </c>
       <c r="C283" t="n">
-        <v>8</v>
+        <v>104</v>
       </c>
     </row>
     <row r="284">
@@ -44930,7 +44938,7 @@
         <v>0</v>
       </c>
       <c r="C285" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="286">
@@ -44941,7 +44949,7 @@
         <v>0</v>
       </c>
       <c r="C286" t="n">
-        <v>48</v>
+        <v>32</v>
       </c>
     </row>
     <row r="287">
@@ -44952,7 +44960,7 @@
         <v>0</v>
       </c>
       <c r="C287" t="n">
-        <v>216</v>
+        <v>32</v>
       </c>
     </row>
     <row r="288">
@@ -44963,7 +44971,7 @@
         <v>0</v>
       </c>
       <c r="C288" t="n">
-        <v>8</v>
+        <v>48</v>
       </c>
     </row>
     <row r="289">
@@ -44974,7 +44982,7 @@
         <v>0</v>
       </c>
       <c r="C289" t="n">
-        <v>104</v>
+        <v>8</v>
       </c>
     </row>
     <row r="290">
@@ -44985,7 +44993,7 @@
         <v>0</v>
       </c>
       <c r="C290" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="291">
@@ -45018,7 +45026,7 @@
         <v>0</v>
       </c>
       <c r="C293" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="294">
@@ -45029,7 +45037,7 @@
         <v>0</v>
       </c>
       <c r="C294" t="n">
-        <v>104</v>
+        <v>8</v>
       </c>
     </row>
     <row r="295">
@@ -45040,7 +45048,7 @@
         <v>0</v>
       </c>
       <c r="C295" t="n">
-        <v>8</v>
+        <v>104</v>
       </c>
     </row>
     <row r="296">
@@ -45051,7 +45059,7 @@
         <v>0</v>
       </c>
       <c r="C296" t="n">
-        <v>72</v>
+        <v>216</v>
       </c>
     </row>
     <row r="297">
@@ -45062,7 +45070,7 @@
         <v>0</v>
       </c>
       <c r="C297" t="n">
-        <v>48</v>
+        <v>72</v>
       </c>
     </row>
     <row r="298">
@@ -45073,7 +45081,7 @@
         <v>0</v>
       </c>
       <c r="C298" t="n">
-        <v>16</v>
+        <v>96</v>
       </c>
     </row>
     <row r="299">
@@ -45084,7 +45092,7 @@
         <v>0</v>
       </c>
       <c r="C299" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="300">
@@ -45095,7 +45103,7 @@
         <v>0</v>
       </c>
       <c r="C300" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="301">
@@ -45106,7 +45114,7 @@
         <v>0</v>
       </c>
       <c r="C301" t="n">
-        <v>96</v>
+        <v>8</v>
       </c>
     </row>
     <row r="302">
@@ -45117,7 +45125,7 @@
         <v>0</v>
       </c>
       <c r="C302" t="n">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="303">
@@ -45161,7 +45169,7 @@
         <v>0</v>
       </c>
       <c r="C306" t="n">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="307">
@@ -45260,7 +45268,7 @@
         <v>0</v>
       </c>
       <c r="C315" t="n">
-        <v>208</v>
+        <v>112</v>
       </c>
     </row>
     <row r="316">
@@ -45271,7 +45279,7 @@
         <v>0</v>
       </c>
       <c r="C316" t="n">
-        <v>96</v>
+        <v>112</v>
       </c>
     </row>
     <row r="317">
@@ -45282,7 +45290,7 @@
         <v>0</v>
       </c>
       <c r="C317" t="n">
-        <v>208</v>
+        <v>96</v>
       </c>
     </row>
     <row r="318">
@@ -45293,7 +45301,7 @@
         <v>0</v>
       </c>
       <c r="C318" t="n">
-        <v>112</v>
+        <v>208</v>
       </c>
     </row>
     <row r="319">
@@ -45304,7 +45312,7 @@
         <v>0</v>
       </c>
       <c r="C319" t="n">
-        <v>112</v>
+        <v>96</v>
       </c>
     </row>
     <row r="320">
@@ -45315,7 +45323,7 @@
         <v>0</v>
       </c>
       <c r="C320" t="n">
-        <v>96</v>
+        <v>208</v>
       </c>
     </row>
     <row r="321">
@@ -45348,7 +45356,7 @@
         <v>0</v>
       </c>
       <c r="C323" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="324">
@@ -45359,7 +45367,7 @@
         <v>0</v>
       </c>
       <c r="C324" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="325">
@@ -46624,6 +46632,17 @@
         <v>37</v>
       </c>
       <c r="C439" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B440" t="n">
+        <v>296</v>
+      </c>
+      <c r="C440" t="n">
         <v>0</v>
       </c>
     </row>

--- a/po forecast comparison/B0BYBHW4SH_sales_po_comparison.xlsx
+++ b/po forecast comparison/B0BYBHW4SH_sales_po_comparison.xlsx
@@ -1226,7 +1226,7 @@
         <v>45676.99999999999</v>
       </c>
       <c r="B98" t="n">
-        <v>296</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -46640,7 +46640,7 @@
         <v>45676.99999999999</v>
       </c>
       <c r="B440" t="n">
-        <v>296</v>
+        <v>38</v>
       </c>
       <c r="C440" t="n">
         <v>0</v>
